--- a/outputs/regressions/A1_all_incomes_simple_tables.xlsx
+++ b/outputs/regressions/A1_all_incomes_simple_tables.xlsx
@@ -3795,7 +3795,7 @@
         <v>1.918815911381015</v>
       </c>
       <c r="C3">
-        <v>0.6120000000000001</v>
+        <v>0.6519999999999999</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
